--- a/biology/Botanique/Relevé_de_végétation/Relevé_de_végétation.xlsx
+++ b/biology/Botanique/Relevé_de_végétation/Relevé_de_végétation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Relev%C3%A9_de_v%C3%A9g%C3%A9tation</t>
+          <t>Relevé_de_végétation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un relevé de végétation est un inventaire de l'ensemble des espèces végétales sur une surface délimitée. 
 Pour chaque espèce, un coefficient peut être attribué selon son abondance ou selon son pourcentage de recouvrement dans le relevé.
